--- a/PCB/BOM/BOM_KeyBoard_Schematic2_2022-11-16.xlsx
+++ b/PCB/BOM/BOM_KeyBoard_Schematic2_2022-11-16.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_KeyBoard_Schematic2_2022-11" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_KeyBoard_PCB2_2023-01-26" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -46,43 +46,52 @@
     <t>FH34SRJ-4S-0.5SH(50)</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FPC-SMD_FH34SRJ-4S-0.5SH-50</t>
+  </si>
+  <si>
+    <t>FPC1,FPC1,FPC1,FPC1,FPC1,FPC1,FPC1,FPC1,FPC1,FPC2,FPC2,FPC2,FPC2,FPC2,FPC2,FPC2,FPC2,FPC2,FPC3,FPC3,FPC3,FPC3,FPC3,FPC3,FPC3,FPC3</t>
+  </si>
+  <si>
+    <t>HRS(广濑)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>THD0510-05CL-GF</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>FPC-SMD_5P-P0.50_THD0510-05CL-GF</t>
+  </si>
+  <si>
+    <t>FPC4,FPC4,FPC4,FPC4,FPC4,FPC4,FPC4,FPC4,FPC5,FPC5,FPC5,FPC5,FPC5,FPC5,FPC5,FPC5</t>
+  </si>
+  <si>
+    <t>THD(台华达)</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>FPC-SMD_FH34SRJ-4S-0.5SH-50</t>
-  </si>
-  <si>
-    <t>FPC1,FPC2,FPC3</t>
-  </si>
-  <si>
-    <t>HRS(广濑)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>THD0510-05CL-GF</t>
-  </si>
-  <si>
-    <t>FPC-SMD_5P-P0.50_THD0510-05CL-GF</t>
-  </si>
-  <si>
-    <t>FPC4,FPC5</t>
-  </si>
-  <si>
-    <t>THD(台华达)</t>
-  </si>
-  <si>
     <t>FH19C-6S-0.5SH(10)</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>FPC-SMD_FH19C-6S-0.5SH</t>
   </si>
   <si>
-    <t>FPC6</t>
+    <t>FPC6,FPC6,FPC6,FPC6,FPC6,FPC6,FPC6,FPC6</t>
   </si>
   <si>
     <t>4</t>
@@ -91,10 +100,13 @@
     <t>KEYBORAD-SW</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>轴座_焊接热插拔_不带灯</t>
   </si>
   <si>
-    <t>SW1,SW2,SW3</t>
+    <t>SW1,SW1,SW1,SW1,SW1,SW1,SW1,SW1,SW1,SW2,SW2,SW2,SW2,SW2,SW2,SW2,SW2,SW3,SW3,SW3,SW3,SW3,SW3,SW3,SW3</t>
   </si>
   <si>
     <t>5</t>
@@ -106,7 +118,7 @@
     <t>LED-SMD_L3.2-W2.8_YO-WS2812B-3528</t>
   </si>
   <si>
-    <t>U1,U2,U3</t>
+    <t>U1,U1,U1,U1,U1,U1,U1,U1,U1,U2,U2,U2,U2,U2,U2,U2,U2,U3,U3,U3,U3,U3,U3,U3,U3</t>
   </si>
 </sst>
 </file>
@@ -558,22 +570,22 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -581,51 +593,51 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -639,31 +651,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
